--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43011,6 +43011,41 @@
         <v>18400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>151300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43046,6 +43046,41 @@
         <v>151300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>237000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43081,6 +43081,41 @@
         <v>237000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>8</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43116,6 +43116,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>87300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43151,6 +43151,41 @@
         <v>87300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>25600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43186,6 +43186,41 @@
         <v>25600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>13400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43221,6 +43221,41 @@
         <v>13400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43256,6 +43256,41 @@
         <v>1700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43291,6 +43291,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>67500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43326,6 +43326,41 @@
         <v>67500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>229800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43361,6 +43361,41 @@
         <v>229800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>49700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43396,6 +43396,41 @@
         <v>49700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>25400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43431,6 +43431,76 @@
         <v>25400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>58700</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>106700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43501,6 +43501,76 @@
         <v>106700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>36500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43571,6 +43571,41 @@
         <v>36500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>29500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43606,6 +43606,41 @@
         <v>29500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>14500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43641,6 +43641,41 @@
         <v>14500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>41400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43676,6 +43676,41 @@
         <v>41400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>65000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43711,6 +43711,76 @@
         <v>65000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>84400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>25200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43781,6 +43781,41 @@
         <v>25200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>61900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43816,6 +43816,41 @@
         <v>61900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>111200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1988"/>
+  <dimension ref="A1:I1989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69996,6 +69996,41 @@
         <v>111200</v>
       </c>
     </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="G1989" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="H1989" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="I1989" t="n">
+        <v>186100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1989"/>
+  <dimension ref="A1:I1990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70031,6 +70031,41 @@
         <v>186100</v>
       </c>
     </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="G1990" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1990" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1990" t="n">
+        <v>144100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1990"/>
+  <dimension ref="A1:I1991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70066,6 +70066,41 @@
         <v>144100</v>
       </c>
     </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="H1991" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="I1991" t="n">
+        <v>46100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1991"/>
+  <dimension ref="A1:I1992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70101,6 +70101,41 @@
         <v>46100</v>
       </c>
     </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H1992" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I1992" t="n">
+        <v>193500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1992"/>
+  <dimension ref="A1:I1993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70136,6 +70136,41 @@
         <v>193500</v>
       </c>
     </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H1993" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="I1993" t="n">
+        <v>180000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1993"/>
+  <dimension ref="A1:I1994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70171,6 +70171,41 @@
         <v>180000</v>
       </c>
     </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H1994" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="I1994" t="n">
+        <v>68800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1994"/>
+  <dimension ref="A1:I1995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70206,6 +70206,41 @@
         <v>68800</v>
       </c>
     </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H1995" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1995" t="n">
+        <v>127600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1995"/>
+  <dimension ref="A1:I1996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70241,6 +70241,41 @@
         <v>127600</v>
       </c>
     </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="I1996" t="n">
+        <v>168200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1996"/>
+  <dimension ref="A1:I1997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70276,6 +70276,41 @@
         <v>168200</v>
       </c>
     </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="I1997" t="n">
+        <v>109300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1997"/>
+  <dimension ref="A1:I1998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70311,6 +70311,41 @@
         <v>109300</v>
       </c>
     </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>124200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1998"/>
+  <dimension ref="A1:I1999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70346,6 +70346,41 @@
         <v>124200</v>
       </c>
     </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1999" t="n">
+        <v>112400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1999"/>
+  <dimension ref="A1:I2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70381,6 +70381,41 @@
         <v>112400</v>
       </c>
     </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>77300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2000"/>
+  <dimension ref="A1:I2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70416,6 +70416,41 @@
         <v>77300</v>
       </c>
     </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>105800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2001"/>
+  <dimension ref="A1:I2002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70451,6 +70451,41 @@
         <v>105800</v>
       </c>
     </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="H2002" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="I2002" t="n">
+        <v>45700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9822.xlsx
+++ b/data/9822.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2002"/>
+  <dimension ref="A1:I2003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70486,6 +70486,41 @@
         <v>45700</v>
       </c>
     </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>9822</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="G2003" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H2003" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="I2003" t="n">
+        <v>45200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
